--- a/data/journal_data2.xlsx
+++ b/data/journal_data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis\DATA\Stream Data Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9561151-F5EA-44FB-A8AC-D0DAC2DFA034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB8A63A-E89C-4212-BB03-98F41242FB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{3CBC0F03-CBAE-4385-8F2F-478EA5E46844}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{3CBC0F03-CBAE-4385-8F2F-478EA5E46844}"/>
   </bookViews>
   <sheets>
     <sheet name="bouge_jour_2" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF1812-FBDC-4745-A4CC-3799AD4CC804}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D4DC5-F6DB-4D1C-BC21-A8ECC5588747}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7800F6CE-8CA9-4A3D-95AC-E08C3B94DBB3}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
